--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/issue log/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="460" windowWidth="18140" windowHeight="7080" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="问题日志" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -79,195 +79,127 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>子模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>功能类</t>
-  </si>
-  <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硬件类</t>
-  </si>
-  <si>
-    <t>显示类</t>
-  </si>
-  <si>
-    <t>到专用号的权重目标表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类</t>
-  </si>
-  <si>
-    <t>周赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q得分逻辑接入edw正式数据之后，算出结果对比BIEE。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T得分逻辑编写，逻辑接入edw正式数据之后，算出结果对比BIEE。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库性能优化</t>
-  </si>
-  <si>
-    <t>数据库迁移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标数据海达源前端展示</t>
-  </si>
-  <si>
-    <t>目标权重设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标权重展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价标准设定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、目标不区分新老供应商，目标以老供应商为准
-2、生成到专用号的目标权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、导入导出功能
-（1）郝书凯给的excel产线不对应。
-（2）按产线导出。
-（3）导出的模板带上Key和产线信息，导入的时候比对，页面端加更新提示。
-（4）导出的时候有产线的系统版本的话，需要把物料组的数带出来，带出样例数据
-（5）权限带上产线，一个产线会有几个人操作，人和产线的对应关系
-2、两个存储过程，数据从正式表进入展示表和计算表，展示表和计算表精确到物料组、物料类、专用号。如果有单独设置的物料类和专用号的话，就用它的，如果没有用物料组的。如果没有
-到产线的数据的话，到系统版本找数据。
-3、单独设置的物料类和专用号，要显示出数
-4、点击物料组的时候，勾选框不选中，点击框的话再选中
-5、试算版本
-6、提交时明细数据的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>低</t>
-  </si>
-  <si>
-    <t>1、下拉框字体样式不对
-2、表格在没有数的情况下，充满整个高度
-3、评价标准列动态生成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在数据库性能偏低，内存再加大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预算时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、导入、导出到产线的初版数据，专用号到专用号TQRDC的，后台导入同步做Excel导入。
-2、导入导出功能
-（1）郝书凯给的excel产线不对应。
-（2）按产线导出。
-（3）导出的模板带上Key和产线信息，导入的时候比对，页面端加更新提示。
-（4）导出的时候有产线的系统版本的话，需要把物料组的数带出来，带出样例数据
-（5）权限带上产线，一个产线会有几个人操作，人和产线的对应关系</t>
+    <t>采购用户评价尚存问题及解决时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、评价频次细节修改
-2、目标的输入框值类型待定
-3、否决项隐藏目标权重、
-4、权重使用百分数、
-5、去掉导入导出功能放到权重目标设定界面上、
-6、如果评价标准是范围类型的话，范围展示。</t>
+    <t>欢迎界面</t>
+    <rPh sb="0" eb="1">
+      <t>huan'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现在数据还在临时数据库上，edw数据已经推送到正式服务器上</t>
+    <t>李阳</t>
+    <rPh sb="0" eb="1">
+      <t>li'yang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>设计类</t>
+  </si>
+  <si>
+    <t>欢迎界面、登录背景界面、公式平台、周报、年报</t>
+    <rPh sb="0" eb="1">
+      <t>huan'ying</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gong'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhou'bao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>nian'bao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RDC得分</t>
+    <t>slogan+背景的形式，公示平台的开发
+2.周报、年报设计</t>
+    <rPh sb="7" eb="8">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gong'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhou'bao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>nian'bao</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>she'ji</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R基础指标、计算指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D基础指标、计算指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C基础指标、计算指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R逻辑编写，逻辑接入edw正式数据之后，算出结果对比BIEE。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D逻辑编写，逻辑接入edw正式数据之后，算出结果对比BIEE。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C逻辑编写，逻辑接入edw正式数据之后，算出结果对比BIEE。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDC逻辑编写，逻辑接入edw正式数据之后，算出结果对比BIEE。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态配置指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购用户评价尚存问题及解决时间</t>
+    <t>导航页、报警、填报、公示平台</t>
+    <rPh sb="0" eb="1">
+      <t>dao'hang'ye</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'jing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tian'bao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ping'tai</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,10 +812,10 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -915,7 +847,7 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -968,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>1</v>
@@ -989,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>9</v>
@@ -1001,27 +933,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -1029,353 +962,69 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="13">
-        <v>42719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="13">
-        <v>42719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="13">
-        <v>42715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="13">
-        <v>42715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="13">
-        <v>42715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="13">
-        <v>42726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="H7" s="8"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="8"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="8"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="8"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="8"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="8"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="8"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="13">
-        <v>42715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" ht="52" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="13">
-        <v>42717</v>
-      </c>
+      <c r="H14" s="8"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="5">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="13">
-        <v>42732</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" s="5" customFormat="1" ht="409" x14ac:dyDescent="0.2">
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="13">
-        <v>42719</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" s="5" customFormat="1" ht="104" x14ac:dyDescent="0.2">
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="13">
-        <v>42717</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="C20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="8">
-        <v>42713</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="13">
-        <v>42732</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="3:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="8:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="H17" s="8"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="8"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="8:10" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="H20" s="8"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E4"/>

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/issue log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -87,118 +87,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>低</t>
-  </si>
-  <si>
     <t>预算时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购用户评价尚存问题及解决时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎界面</t>
+    <t>青岛清算所风控项目尚存问题及解决时间</t>
     <rPh sb="0" eb="1">
-      <t>huan'ying</t>
+      <t>qing'dao</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李阳</t>
-    <rPh sb="0" eb="1">
-      <t>li'yang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计类</t>
-  </si>
-  <si>
-    <t>欢迎界面、登录背景界面、公式平台、周报、年报</t>
-    <rPh sb="0" eb="1">
-      <t>huan'ying</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
+      <t>qing'suan'suo</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>deng'lu</t>
+      <t>feng'kong</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>bei'jing</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>gong'shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ping'tai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zhou'bao</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>nian'bao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slogan+背景的形式，公示平台的开发
-2.周报、年报设计</t>
-    <rPh sb="7" eb="8">
-      <t>bei'jing</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xing'shi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>gong'shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ping'tai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>de</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zhou'bao</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>nian'bao</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>she'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导航页、报警、填报、公示平台</t>
-    <rPh sb="0" eb="1">
-      <t>dao'hang'ye</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao'jing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tian'bao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>gong'shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ping'tai</t>
+      <t>xiang'mu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,10 +716,10 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -847,7 +751,7 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -921,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>9</v>
@@ -933,37 +837,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H6" s="8"/>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H7" s="8"/>
       <c r="J7" s="13"/>
     </row>

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\07.系统开发\issue log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="问题日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题日志!$B$5:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -106,12 +106,57 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>监管全景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示类</t>
+  </si>
+  <si>
+    <t>陆星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载速度过慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待关闭</t>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类</t>
+  </si>
+  <si>
+    <t>陆星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要一个返回导航页的按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易产品监控、市场舆情概览、业务统计、交易风险页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼图联动其他图表后，需要有刷新按钮，返回全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="图片 2"/>
+        <xdr:cNvPr id="1027" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -417,6 +468,50 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38102</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8661D9EE-3B63-4EC2-B28E-2C005DA3E583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525002" y="1047751"/>
+          <a:ext cx="1304924" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -711,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N23"/>
@@ -719,33 +814,33 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="6" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="6"/>
+    <col min="19" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="14.25">
       <c r="G1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="17.25">
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -764,7 +859,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="17.25">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -781,7 +876,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="17.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -798,7 +893,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>0</v>
@@ -837,71 +932,131 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H7" s="8"/>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="25.5">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8">
+        <v>43047</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="25.5">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8">
+        <v>43047</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="8"/>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="38.25">
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8">
+        <v>43047</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1">
       <c r="H9" s="8"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="5" customFormat="1">
       <c r="H10" s="8"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="5" customFormat="1">
       <c r="H11" s="8"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="5" customFormat="1">
       <c r="H12" s="8"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="5" customFormat="1">
       <c r="H13" s="8"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="5" customFormat="1">
       <c r="H14" s="8"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="5" customFormat="1" ht="13.5">
       <c r="C15" s="9"/>
       <c r="H15" s="8"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="5" customFormat="1" ht="13.5">
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="8:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:10" s="5" customFormat="1" ht="13.5">
       <c r="H17" s="8"/>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:10" s="5" customFormat="1">
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:10" s="5" customFormat="1">
       <c r="H19" s="8"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="8:10" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:10" s="5" customFormat="1">
       <c r="H20" s="8"/>
       <c r="I20" s="14"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="8:10" s="5" customFormat="1"/>
+    <row r="22" spans="8:10" s="5" customFormat="1"/>
+    <row r="23" spans="8:10" s="5" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E4"/>

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/issue log/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="问题日志" sheetId="1" r:id="rId1"/>
@@ -375,28 +375,34 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>1092200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="http://www.qdch.com/attached/image/20160712/20160712101006_649.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -404,19 +410,22 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28576" y="228600"/>
-          <a:ext cx="1076324" cy="514350"/>
+          <a:off x="152400" y="279400"/>
+          <a:ext cx="1600200" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -719,7 +728,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -837,7 +846,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C6"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/issue log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\07.系统开发\issue log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="问题日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题日志!$B$5:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -106,12 +106,61 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>新增产品信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各维度指标占比饼图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大页面二维饼图，第一维是风险大类、第二维是风险小类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待关闭</t>
+  </si>
+  <si>
+    <t>陆星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理人：满莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示类</t>
+  </si>
+  <si>
+    <t>功能类</t>
+  </si>
+  <si>
+    <t>监管全景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面刷洗速度慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理人：满莉、郭海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +439,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="http://www.qdch.com/attached/image/20160712/20160712101006_649.png"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="http://www.qdch.com/attached/image/20160712/20160712101006_649.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -720,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N23"/>
@@ -728,33 +783,33 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="6" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="6"/>
+    <col min="19" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15">
       <c r="G1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="17.25">
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -773,7 +828,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="17.25">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -790,7 +845,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="17.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -807,7 +862,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>0</v>
@@ -846,72 +901,131 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C6"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H7" s="8"/>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="25.5">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8">
+        <v>43048</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="38.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8">
+        <v>43048</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="8"/>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1">
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8">
+        <v>43047</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="5" customFormat="1">
       <c r="H9" s="8"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="12.95">
       <c r="H10" s="8"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="5" customFormat="1" ht="12.95">
       <c r="H11" s="8"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="12.95">
       <c r="H12" s="8"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="12.95">
       <c r="H13" s="8"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="5" customFormat="1" ht="12.95">
       <c r="H14" s="8"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="C15" s="9"/>
       <c r="H15" s="8"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="8:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:10" s="5" customFormat="1" ht="15">
       <c r="H17" s="8"/>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:10" s="5" customFormat="1" ht="12.95">
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:10" s="5" customFormat="1" ht="12.95">
       <c r="H19" s="8"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="8:10" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:10" s="5" customFormat="1" ht="14.1">
       <c r="H20" s="8"/>
       <c r="I20" s="14"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="8:10" s="5" customFormat="1" ht="12.95"/>
+    <row r="22" spans="8:10" s="5" customFormat="1" ht="12.95"/>
+    <row r="23" spans="8:10" s="5" customFormat="1" ht="12.95"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E4"/>

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\07.系统开发\issue log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QSS\qss_doc\07.系统开发\issue log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -153,6 +153,25 @@
   </si>
   <si>
     <t>处理人：满莉、郭海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周坤江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前公众号类型无法进行消息推送，若要微信消息推送，需要使用微信服务号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>处理人：陆星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +802,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -805,7 +824,7 @@
     <col min="19" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="14.25">
       <c r="G1" s="6"/>
       <c r="J1" s="6"/>
     </row>
@@ -972,60 +991,83 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1">
-      <c r="H9" s="8"/>
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="38.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="8">
+        <v>43048.719652777778</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="12.95">
+      <c r="K9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1">
       <c r="H10" s="8"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" ht="12.95">
+    <row r="11" spans="1:14" s="5" customFormat="1">
       <c r="H11" s="8"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="12.95">
+    <row r="12" spans="1:14" s="5" customFormat="1">
       <c r="H12" s="8"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" ht="12.95">
+    <row r="13" spans="1:14" s="5" customFormat="1">
       <c r="H13" s="8"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" ht="12.95">
+    <row r="14" spans="1:14" s="5" customFormat="1">
       <c r="H14" s="8"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" ht="15">
+    <row r="15" spans="1:14" s="5" customFormat="1" ht="13.5">
       <c r="C15" s="9"/>
       <c r="H15" s="8"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" ht="15">
+    <row r="16" spans="1:14" s="5" customFormat="1" ht="13.5">
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="8:10" s="5" customFormat="1" ht="15">
+    <row r="17" spans="8:10" s="5" customFormat="1" ht="13.5">
       <c r="H17" s="8"/>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="8:10" s="5" customFormat="1" ht="12.95">
+    <row r="18" spans="8:10" s="5" customFormat="1">
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="8:10" s="5" customFormat="1" ht="12.95">
+    <row r="19" spans="8:10" s="5" customFormat="1">
       <c r="H19" s="8"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="8:10" s="5" customFormat="1" ht="14.1">
+    <row r="20" spans="8:10" s="5" customFormat="1">
       <c r="H20" s="8"/>
       <c r="I20" s="14"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="8:10" s="5" customFormat="1" ht="12.95"/>
-    <row r="22" spans="8:10" s="5" customFormat="1" ht="12.95"/>
-    <row r="23" spans="8:10" s="5" customFormat="1" ht="12.95"/>
+    <row r="21" spans="8:10" s="5" customFormat="1"/>
+    <row r="22" spans="8:10" s="5" customFormat="1"/>
+    <row r="23" spans="8:10" s="5" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E4"/>

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QSS\qss_doc\07.系统开发\issue log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\07.系统开发\issue log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题日志!$B$5:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>处理人：满莉、郭海洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信公众号推送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,30 @@
   </si>
   <si>
     <t>处理人：陆星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端样式确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页IP未改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试IP切换后，首页IP未切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端样式是否重布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理人：周坤江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +822,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -943,7 +963,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="38.25">
@@ -996,35 +1016,72 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="8">
         <v>43048.719652777778</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="25.5">
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1">
-      <c r="H10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="8">
+        <v>43054</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1">
-      <c r="H11" s="8"/>
+      <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" ht="25.5">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="8">
+        <v>43054</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="13"/>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1">
       <c r="H12" s="8"/>

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="问题日志" sheetId="1" r:id="rId1"/>
+    <sheet name="大宗类问题日志" sheetId="1" r:id="rId1"/>
+    <sheet name="权益类问题日志" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题日志!$B$5:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">大宗类问题日志!$B$5:$M$6</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -156,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周坤江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据当前公众号类型无法进行消息推送，若要微信消息推送，需要使用微信服务号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +189,68 @@
   </si>
   <si>
     <t>处理人：周坤江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类风险模块中的风险事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分析菜单下的各类风险页面中风险事件，点击弹出风险事件明细，改为：直接跳转到风险事件列表，显示对应风险类型的风险事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理人：满莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一个返回导航也的按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>处理人：李阳，满莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：进入大宗类之后，想回到主页，点击按钮返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权益类季度报</t>
+  </si>
+  <si>
+    <t>监管平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计类</t>
+  </si>
+  <si>
+    <t>权益类季度报表设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">处理人：李阳  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -352,6 +411,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -361,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,13 +484,43 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -506,6 +608,72 @@
         <a:xfrm>
           <a:off x="152400" y="279400"/>
           <a:ext cx="1600200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="http://www.qdch.com/attached/image/20160712/20160712101006_649.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090801C7-8FC9-4EF5-9090-CCBCD84FB4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="152400" y="269875"/>
+          <a:ext cx="1597025" cy="425450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,10 +987,10 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -947,6 +1115,9 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
@@ -976,6 +1147,9 @@
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1003,6 +1177,9 @@
       <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="H8" s="8">
         <v>43047</v>
       </c>
@@ -1018,24 +1195,24 @@
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="H9" s="8">
         <v>43048.719652777778</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" ht="25.5">
@@ -1043,7 +1220,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>24</v>
@@ -1052,44 +1232,99 @@
         <v>43054</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" ht="25.5">
+    <row r="11" spans="1:14" s="5" customFormat="1">
       <c r="B11" s="5">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="H11" s="8">
         <v>43054</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="51">
+      <c r="B12" s="5">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="8">
+        <v>43054</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1">
-      <c r="H12" s="8"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1">
-      <c r="H13" s="8"/>
+      <c r="M12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="25.5">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="8">
+        <v>43054</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="J13" s="13"/>
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1">
       <c r="H14" s="8"/>
@@ -1132,10 +1367,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1 K5:K1048576">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="38" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="39" operator="equal">
       <formula>"登记"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1154,4 +1389,330 @@
   <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1">
+      <c r="F1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="24">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="36">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="24">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="33">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="25.5">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8">
+        <v>43055</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D4"/>
+    <mergeCell ref="E2:K4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J1 J5:J6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"关闭"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"登记"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E5:E6">
+      <formula1>"显示类,设计类,流程类,规则类,数据类,功能类,接口类,硬件类,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J5:J6">
+      <formula1>"新增,开发,等待测试,测试,等待关闭,上线,关闭,取消,重新打开"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\07.系统开发\issue log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/issue log/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类问题日志" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -253,12 +253,22 @@
     <t xml:space="preserve">处理人：李阳  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>处理人：郭海洋</t>
+    <rPh sb="0" eb="1">
+      <t>chu'li'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo'hai'yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,17 +489,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,7 +593,7 @@
         <xdr:cNvPr id="3" name="图片 2" descr="http://www.qdch.com/attached/image/20160712/20160712101006_649.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -649,7 +659,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="http://www.qdch.com/attached/image/20160712/20160712101006_649.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090801C7-8FC9-4EF5-9090-CCBCD84FB4A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{090801C7-8FC9-4EF5-9090-CCBCD84FB4A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -982,94 +992,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD6"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="6" customWidth="1"/>
-    <col min="5" max="7" width="7.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="4.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="6"/>
+    <col min="19" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="14.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="G1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="16.5">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>0</v>
@@ -1108,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="25.5">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1137,7 +1147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="38.25">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1170,7 +1180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1">
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -1188,7 +1198,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" ht="38.25">
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -1215,7 +1225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="25.5">
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -1238,8 +1248,11 @@
       <c r="K10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1">
+      <c r="M10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -1266,7 +1279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="51">
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>7</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" ht="25.5">
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -1326,40 +1339,40 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1">
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H14" s="8"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" ht="13.5">
+    <row r="15" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="C15" s="9"/>
       <c r="H15" s="8"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" ht="13.5">
+    <row r="16" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="8:10" s="5" customFormat="1" ht="13.5">
+    <row r="17" spans="8:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="H17" s="8"/>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="8:10" s="5" customFormat="1">
+    <row r="18" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="8:10" s="5" customFormat="1">
+    <row r="19" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="8"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="8:10" s="5" customFormat="1">
+    <row r="20" spans="8:10" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="H20" s="8"/>
       <c r="I20" s="14"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="8:10" s="5" customFormat="1"/>
-    <row r="22" spans="8:10" s="5" customFormat="1"/>
-    <row r="23" spans="8:10" s="5" customFormat="1"/>
+    <row r="21" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E4"/>
@@ -1395,74 +1408,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="24">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="36">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="24">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="33">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1500,11 +1513,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="25.5">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1531,161 +1544,161 @@
       <c r="L6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/07.系统开发/issue log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\07.系统开发\issue log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类问题日志" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">大宗类问题日志!$B$5:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -263,12 +263,100 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>陆星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报页面-纠纷客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报页面纠纷客户中的产品代码字段，设置为下拉框控件，选择代码后自动带出产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报页面-报警事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题错误，现在写的是线下价格，应是纠纷客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数面板有滚动条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个页面的风险事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后跳转到风险事件填报页面，传参，显示该类风险的事件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标对比页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险事件明细条形图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要一组图例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回全部的按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不刷新整个页面，按钮处设为传参形式，默认就是全部，点击该按钮，页面显示全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠纷客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图和字不协调不美观，稍作调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心产品编码和产品名称换位，冻结前两列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉淀资金趋势图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折线图注册资金改为沉淀资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,15 +439,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,9 +573,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -500,6 +584,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,7 +680,7 @@
         <xdr:cNvPr id="3" name="图片 2" descr="http://www.qdch.com/attached/image/20160712/20160712101006_649.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -659,7 +746,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="http://www.qdch.com/attached/image/20160712/20160712101006_649.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{090801C7-8FC9-4EF5-9090-CCBCD84FB4A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090801C7-8FC9-4EF5-9090-CCBCD84FB4A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,94 +1079,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="6" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="6"/>
+    <col min="19" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15">
       <c r="G1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="17.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="17.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="17.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>0</v>
@@ -1118,7 +1205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="25.5">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1147,7 +1234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="38.25">
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1180,7 +1267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="5" customFormat="1">
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -1198,7 +1285,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="38.25">
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -1225,7 +1312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="25.5">
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -1252,7 +1339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="5" customFormat="1">
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -1279,7 +1366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="51">
       <c r="B12" s="5">
         <v>7</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="25.5">
       <c r="B13" s="5">
         <v>8</v>
       </c>
@@ -1339,40 +1426,217 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="8"/>
+    <row r="14" spans="1:14" s="5" customFormat="1" ht="38.25">
+      <c r="B14" s="5">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="8">
+        <v>43064</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C15" s="9"/>
-      <c r="H15" s="8"/>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="5" customFormat="1" ht="25.5">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="8">
+        <v>43064</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="5" customFormat="1" ht="13.5">
+      <c r="B16" s="5">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="8">
+        <v>43064</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="8:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="H17" s="8"/>
-      <c r="I17" s="12"/>
+    <row r="17" spans="2:11" s="5" customFormat="1" ht="38.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="8">
+        <v>43064</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="5" customFormat="1" ht="38.25">
+      <c r="B18" s="5">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="5" customFormat="1" ht="38.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="H19" s="8"/>
+      <c r="I19" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="8:10" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="K19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="5" customFormat="1" ht="25.5">
+      <c r="B20" s="5">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="8:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="K20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="5" customFormat="1" ht="25.5">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="5" customFormat="1" ht="25.5">
+      <c r="B22" s="5">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="5" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E4"/>
@@ -1412,70 +1676,70 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="15">
       <c r="F1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="24">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="36">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="24">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="33">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1513,11 +1777,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="25.5">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1544,161 +1808,161 @@
       <c r="L6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" ht="15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" ht="15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类问题日志" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -349,6 +349,94 @@
   </si>
   <si>
     <t>折线图注册资金改为沉淀资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管全景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资额改为交易量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积交易量加一个柱形图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排版看上去有些乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行人改为发行主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计客户持仓改为未结清资金走势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待兑付资金改为未结清资金量排名（发行主体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违约占比和逾期占比改为历史逾期和违约名单滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品周期占比改为产品种类占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔融资金额排名改为单笔交易额排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品收益率改为不同期限产品收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品发行量改为不同期限产品发行量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额交易排名改为交易额排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频繁交易排名改为交易活跃度排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未结清融资金额改为未结清资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐倩倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场盈亏排名，月手续费收入趋势，未结清资金金额，未结清产品最高利率，未结清产品平均利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为一个图“未结清资金概览”，展示5个指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,14 +667,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
@@ -1109,58 +1200,58 @@
     <col min="19" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="14.25">
       <c r="G1" s="6"/>
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1599,7 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1670,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1682,58 +1773,58 @@
     <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="F1" s="6"/>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="24">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="36">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="24">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1810,159 +1901,421 @@
       </c>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:13" ht="15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:13" ht="15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="15">
+        <v>8</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="15">
+        <v>12</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="15">
+        <v>14</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="15">
+        <v>16</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1970,7 +2323,7 @@
     <mergeCell ref="E2:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1 J5:J6">
+  <conditionalFormatting sqref="J1 J5:J21">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -1985,11 +2338,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E5:E6">
       <formula1>"显示类,设计类,流程类,规则类,数据类,功能类,接口类,硬件类,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J5:J6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J5:J21">
       <formula1>"新增,开发,等待测试,测试,等待关闭,上线,关闭,取消,重新打开"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类问题日志" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -618,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,14 +670,17 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,10 +1178,10 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -1205,53 +1208,53 @@
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1763,14 +1766,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1">
@@ -1778,53 +1782,53 @@
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="24">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="36">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="24">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2045,7 +2049,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1">
       <c r="A13" s="15">
         <v>8</v>
       </c>
@@ -2169,7 +2173,7 @@
       <c r="A18" s="5">
         <v>13</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="15"/>
@@ -2179,7 +2183,7 @@
         <v>97</v>
       </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="17" t="s">
         <v>93</v>
       </c>
       <c r="I18" s="15"/>
@@ -2193,7 +2197,7 @@
       <c r="A19" s="15">
         <v>14</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="15"/>
@@ -2203,7 +2207,7 @@
         <v>97</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="17" t="s">
         <v>94</v>
       </c>
       <c r="I19" s="15"/>
@@ -2217,7 +2221,7 @@
       <c r="A20" s="5">
         <v>15</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="15"/>
@@ -2227,7 +2231,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="17" t="s">
         <v>96</v>
       </c>
       <c r="I20" s="15"/>
@@ -2237,21 +2241,23 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="15">
         <v>16</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="17" t="s">
         <v>99</v>
       </c>
       <c r="I21" s="15"/>

--- a/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
+++ b/07.系统开发/issue log/青岛清算所 风控项目issue  log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="843" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类问题日志" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -436,7 +436,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改为一个图“未结清资金概览”，展示5个指标</t>
+    <t>业务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易额明细改为“产品成交明细”，字段为产品名称、产品类别、发行方、投资方、金额、交易时间、利率，产品起始时间、产品到期日，这些字段能放多少放多少，放不开可以把不重要的剔除，比如产品起始时间、产品到期日。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资金趋势图和客户成交趋势图改成一个图，客户交易统计，展示客户数和累积交易量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户风险监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加筛选框，详见设计图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险画像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加筛选框，同大宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为两个图“未结清资金概览”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户各交易品种占比改为“投资人各产品占比”，换成饼图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,14 +705,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1178,8 +1210,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
@@ -1208,53 +1240,53 @@
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="17.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1764,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1782,53 +1814,53 @@
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="24">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="36">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="24">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2248,7 +2280,7 @@
       <c r="B21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D21" s="15"/>
@@ -2258,7 +2290,7 @@
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="17" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="5" t="s">
@@ -2268,60 +2300,120 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="15">
+        <v>17</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="15">
+        <v>18</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="15">
+        <v>19</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="15">
+        <v>20</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="H25" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="J25" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="15">
+        <v>21</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2329,7 +2421,7 @@
     <mergeCell ref="E2:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1 J5:J21">
+  <conditionalFormatting sqref="J1 J5:J26">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"关闭"</formula>
     </cfRule>
@@ -2344,7 +2436,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E5:E6">
       <formula1>"显示类,设计类,流程类,规则类,数据类,功能类,接口类,硬件类,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J5:J21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J5:J26">
       <formula1>"新增,开发,等待测试,测试,等待关闭,上线,关闭,取消,重新打开"</formula1>
     </dataValidation>
   </dataValidations>
